--- a/Code/Results/Cases/Case_8_3/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_3/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.041493518738414</v>
+        <v>1.032444306210089</v>
       </c>
       <c r="D2">
-        <v>1.053294090007383</v>
+        <v>1.045544236724917</v>
       </c>
       <c r="E2">
-        <v>1.050828568949841</v>
+        <v>1.043415325795073</v>
       </c>
       <c r="F2">
-        <v>1.058605913351779</v>
+        <v>1.052055460398049</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.062006696912958</v>
+        <v>1.057592742945531</v>
       </c>
       <c r="J2">
-        <v>1.062500236523134</v>
+        <v>1.053696100591918</v>
       </c>
       <c r="K2">
-        <v>1.0640577186748</v>
+        <v>1.056403539465663</v>
       </c>
       <c r="L2">
-        <v>1.061622444705771</v>
+        <v>1.05430122070145</v>
       </c>
       <c r="M2">
-        <v>1.069304970941995</v>
+        <v>1.062834262570594</v>
       </c>
       <c r="N2">
-        <v>1.064009108729477</v>
+        <v>1.039703194794623</v>
       </c>
       <c r="O2">
-        <v>1.03</v>
+        <v>1.029999999999999</v>
       </c>
       <c r="P2">
-        <v>1.063422272454155</v>
+        <v>1.058301280068429</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.056364330143246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.050960969419688</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026710256732102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,105 +501,123 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045728267476393</v>
+        <v>1.036172441624231</v>
       </c>
       <c r="D3">
-        <v>1.056194545110751</v>
+        <v>1.047993634990589</v>
       </c>
       <c r="E3">
-        <v>1.054149233419749</v>
+        <v>1.046299478739057</v>
       </c>
       <c r="F3">
-        <v>1.061646576590781</v>
+        <v>1.054715919854768</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.063224806509338</v>
+        <v>1.05853443800078</v>
       </c>
       <c r="J3">
-        <v>1.065045469503818</v>
+        <v>1.055723333102089</v>
       </c>
       <c r="K3">
-        <v>1.066155559109575</v>
+        <v>1.058047158340205</v>
       </c>
       <c r="L3">
-        <v>1.064133153389472</v>
+        <v>1.056372335793154</v>
       </c>
       <c r="M3">
-        <v>1.071547061936781</v>
+        <v>1.064693482403083</v>
       </c>
       <c r="N3">
-        <v>1.066557956232936</v>
+        <v>1.040839701761217</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.065196680985258</v>
+        <v>1.059772691309363</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.057845016300621</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.05212021973325</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02707248481056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048419666268197</v>
+        <v>1.038544900727603</v>
       </c>
       <c r="D4">
-        <v>1.058041931715313</v>
+        <v>1.049556326548962</v>
       </c>
       <c r="E4">
-        <v>1.056265007689769</v>
+        <v>1.048140274419529</v>
       </c>
       <c r="F4">
-        <v>1.063585137410815</v>
+        <v>1.056414871292501</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.063991520850594</v>
+        <v>1.059126543044097</v>
       </c>
       <c r="J4">
-        <v>1.066660959827686</v>
+        <v>1.0570114988772</v>
       </c>
       <c r="K4">
-        <v>1.067486892970262</v>
+        <v>1.059091293641246</v>
       </c>
       <c r="L4">
-        <v>1.06572867017517</v>
+        <v>1.057690435264133</v>
       </c>
       <c r="M4">
-        <v>1.072972249407942</v>
+        <v>1.065876953568512</v>
       </c>
       <c r="N4">
-        <v>1.068175740738363</v>
+        <v>1.041561868224689</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.066324583532675</v>
+        <v>1.060709304629825</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.058787213575624</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.052859447058256</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.027300216912348</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049545048405611</v>
+        <v>1.039537212011193</v>
       </c>
       <c r="D5">
-        <v>1.058817474368232</v>
+        <v>1.050213050487203</v>
       </c>
       <c r="E5">
-        <v>1.057151746630168</v>
+        <v>1.048912234146131</v>
       </c>
       <c r="F5">
-        <v>1.064397883498271</v>
+        <v>1.05712762522157</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.064312387385699</v>
+        <v>1.059374419010602</v>
       </c>
       <c r="J5">
-        <v>1.067337892857941</v>
+        <v>1.057551640117014</v>
       </c>
       <c r="K5">
-        <v>1.068046179508158</v>
+        <v>1.059530615574494</v>
       </c>
       <c r="L5">
-        <v>1.06639751646808</v>
+        <v>1.05824338804526</v>
       </c>
       <c r="M5">
-        <v>1.073569893366887</v>
+        <v>1.066373642655028</v>
       </c>
       <c r="N5">
-        <v>1.068853635091166</v>
+        <v>1.041864678954433</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.066797562333397</v>
+        <v>1.061102390011973</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.059189647601363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.053177809916812</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.027396213524032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049739713242849</v>
+        <v>1.039708414708917</v>
       </c>
       <c r="D6">
-        <v>1.058954290466</v>
+        <v>1.050329059639248</v>
       </c>
       <c r="E6">
-        <v>1.057306181673396</v>
+        <v>1.049046406280887</v>
       </c>
       <c r="F6">
-        <v>1.064539445763326</v>
+        <v>1.057251592383155</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.064370332934712</v>
+        <v>1.059419477298936</v>
       </c>
       <c r="J6">
-        <v>1.067457351874137</v>
+        <v>1.057647024203064</v>
       </c>
       <c r="K6">
-        <v>1.068146657363985</v>
+        <v>1.059610096850354</v>
       </c>
       <c r="L6">
-        <v>1.066515355433066</v>
+        <v>1.058340781661676</v>
       </c>
       <c r="M6">
-        <v>1.073675327944003</v>
+        <v>1.066461323918626</v>
       </c>
       <c r="N6">
-        <v>1.068973263752867</v>
+        <v>1.041918152536515</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.066881003823217</v>
+        <v>1.061171781938782</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.059269214468769</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.053243443974443</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.027414465700829</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048451934835199</v>
+        <v>1.038600612298564</v>
       </c>
       <c r="D7">
-        <v>1.058071181324001</v>
+        <v>1.049603647109313</v>
       </c>
       <c r="E7">
-        <v>1.056293082147985</v>
+        <v>1.048189528678047</v>
       </c>
       <c r="F7">
-        <v>1.063610842427366</v>
+        <v>1.056457771277181</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.064007619483367</v>
+        <v>1.059156030128184</v>
       </c>
       <c r="J7">
-        <v>1.066686833682341</v>
+        <v>1.057060174259394</v>
       </c>
       <c r="K7">
-        <v>1.067513052018446</v>
+        <v>1.059135294212492</v>
       </c>
       <c r="L7">
-        <v>1.06575365900519</v>
+        <v>1.057736342040551</v>
       </c>
       <c r="M7">
-        <v>1.07299492363496</v>
+        <v>1.065916612317585</v>
       </c>
       <c r="N7">
-        <v>1.06820165133686</v>
+        <v>1.041640125008529</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.066342528049013</v>
+        <v>1.060740691021419</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.058825318752989</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.052912264221006</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.027315927412322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042956841226488</v>
+        <v>1.03382042912861</v>
       </c>
       <c r="D8">
-        <v>1.054304309920581</v>
+        <v>1.046467774690651</v>
       </c>
       <c r="E8">
-        <v>1.051978388265452</v>
+        <v>1.044493580507719</v>
       </c>
       <c r="F8">
-        <v>1.05965842696354</v>
+        <v>1.053041454834602</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.062437857390475</v>
+        <v>1.057978757578463</v>
       </c>
       <c r="J8">
-        <v>1.063388323141825</v>
+        <v>1.054491077129821</v>
       </c>
       <c r="K8">
-        <v>1.064795704334698</v>
+        <v>1.057053054458278</v>
       </c>
       <c r="L8">
-        <v>1.062497467307251</v>
+        <v>1.055102788016451</v>
       </c>
       <c r="M8">
-        <v>1.070086664840935</v>
+        <v>1.063547861758812</v>
       </c>
       <c r="N8">
-        <v>1.064898456533032</v>
+        <v>1.040303475395224</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.064040911638465</v>
+        <v>1.058866032265309</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.056908485171667</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.05144494656654</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026868595170818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032854529338815</v>
+        <v>1.024966400519958</v>
       </c>
       <c r="D9">
-        <v>1.047401458042533</v>
+        <v>1.040669405139295</v>
       </c>
       <c r="E9">
-        <v>1.044085663104742</v>
+        <v>1.037676145543396</v>
       </c>
       <c r="F9">
-        <v>1.052438302807861</v>
+        <v>1.046756331731054</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.059483025123488</v>
+        <v>1.055701928637752</v>
       </c>
       <c r="J9">
-        <v>1.057298166471312</v>
+        <v>1.04966732123172</v>
       </c>
       <c r="K9">
-        <v>1.059769599210599</v>
+        <v>1.053135395092562</v>
       </c>
       <c r="L9">
-        <v>1.056501798597553</v>
+        <v>1.050186159749154</v>
       </c>
       <c r="M9">
-        <v>1.064734270493333</v>
+        <v>1.059133780561929</v>
       </c>
       <c r="N9">
-        <v>1.058799651141496</v>
+        <v>1.037618027597764</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.05980497151364</v>
+        <v>1.055372661116512</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.053351742875571</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.048671600402504</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025991892916634</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025926042431965</v>
+        <v>1.019044243782106</v>
       </c>
       <c r="D10">
-        <v>1.04271656052262</v>
+        <v>1.036856986068071</v>
       </c>
       <c r="E10">
-        <v>1.038732803829741</v>
+        <v>1.033193802092894</v>
       </c>
       <c r="F10">
-        <v>1.047576640585417</v>
+        <v>1.042645608364255</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.057452655536945</v>
+        <v>1.054217545429343</v>
       </c>
       <c r="J10">
-        <v>1.053147493229354</v>
+        <v>1.04652212674052</v>
       </c>
       <c r="K10">
-        <v>1.056355131754867</v>
+        <v>1.050591204790351</v>
       </c>
       <c r="L10">
-        <v>1.052436252091849</v>
+        <v>1.046988525556106</v>
       </c>
       <c r="M10">
-        <v>1.061136920361427</v>
+        <v>1.056285329511947</v>
       </c>
       <c r="N10">
-        <v>1.054643083467446</v>
+        <v>1.036082961710697</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.057008285744325</v>
+        <v>1.053168882561293</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.050954049425482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.046890953339343</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02543907891874</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.023608369859284</v>
+        <v>1.017196624524408</v>
       </c>
       <c r="D11">
-        <v>1.041341765158782</v>
+        <v>1.03587505993706</v>
       </c>
       <c r="E11">
-        <v>1.037175120280185</v>
+        <v>1.03204354409127</v>
       </c>
       <c r="F11">
-        <v>1.046388625353763</v>
+        <v>1.041807522872588</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.057023490878703</v>
+        <v>1.05403962239397</v>
       </c>
       <c r="J11">
-        <v>1.052030956916596</v>
+        <v>1.045871098804003</v>
       </c>
       <c r="K11">
-        <v>1.055523993610254</v>
+        <v>1.050150719087922</v>
       </c>
       <c r="L11">
-        <v>1.051428444916618</v>
+        <v>1.046385450769985</v>
       </c>
       <c r="M11">
-        <v>1.060485715806376</v>
+        <v>1.055981849631173</v>
       </c>
       <c r="N11">
-        <v>1.053524961545055</v>
+        <v>1.036153739481375</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.056920060375788</v>
+        <v>1.053357560581493</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.050398594978851</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.046615018482441</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025450402946354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.023021017540493</v>
+        <v>1.016717610376006</v>
       </c>
       <c r="D12">
-        <v>1.041083400722809</v>
+        <v>1.035704154987204</v>
       </c>
       <c r="E12">
-        <v>1.0368935192144</v>
+        <v>1.031851413291017</v>
       </c>
       <c r="F12">
-        <v>1.046298804373826</v>
+        <v>1.041796901692386</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.057041009479699</v>
+        <v>1.054108421225762</v>
       </c>
       <c r="J12">
-        <v>1.051882061240234</v>
+        <v>1.045830924015461</v>
       </c>
       <c r="K12">
-        <v>1.055463677113951</v>
+        <v>1.050177862667534</v>
       </c>
       <c r="L12">
-        <v>1.051346460923591</v>
+        <v>1.046392815016713</v>
       </c>
       <c r="M12">
-        <v>1.060589679784489</v>
+        <v>1.056164879111078</v>
       </c>
       <c r="N12">
-        <v>1.053375854419754</v>
+        <v>1.036320642592246</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.057322524570213</v>
+        <v>1.053823708627493</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.050355950871758</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.046634208930731</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025526376680022</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023751184067088</v>
+        <v>1.01725037149163</v>
       </c>
       <c r="D13">
-        <v>1.041692610784832</v>
+        <v>1.036144147709673</v>
       </c>
       <c r="E13">
-        <v>1.037598513858115</v>
+        <v>1.032376706841356</v>
       </c>
       <c r="F13">
-        <v>1.047075889197887</v>
+        <v>1.042424804666495</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.057423532331422</v>
+        <v>1.05437271133334</v>
       </c>
       <c r="J13">
-        <v>1.052494213986318</v>
+        <v>1.046252171288395</v>
       </c>
       <c r="K13">
-        <v>1.056020881249152</v>
+        <v>1.050568342891476</v>
       </c>
       <c r="L13">
-        <v>1.051997436811905</v>
+        <v>1.046866797242961</v>
       </c>
       <c r="M13">
-        <v>1.061312344818938</v>
+        <v>1.056740515145955</v>
       </c>
       <c r="N13">
-        <v>1.053988876492952</v>
+        <v>1.03651482839395</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.058165951244329</v>
+        <v>1.054551756901334</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.050747456082133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.046907585735222</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025658583021593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024860388049915</v>
+        <v>1.018088673864474</v>
       </c>
       <c r="D14">
-        <v>1.042513903505278</v>
+        <v>1.036736080023251</v>
       </c>
       <c r="E14">
-        <v>1.038539734985037</v>
+        <v>1.033076375124063</v>
       </c>
       <c r="F14">
-        <v>1.048013647452298</v>
+        <v>1.043159703067013</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.05785718723425</v>
+        <v>1.054651310864171</v>
       </c>
       <c r="J14">
-        <v>1.053268539859478</v>
+        <v>1.046762442853851</v>
       </c>
       <c r="K14">
-        <v>1.056692241545991</v>
+        <v>1.051013044731953</v>
       </c>
       <c r="L14">
-        <v>1.052785759313339</v>
+        <v>1.047416549052128</v>
       </c>
       <c r="M14">
-        <v>1.062099407486805</v>
+        <v>1.05732710499448</v>
       </c>
       <c r="N14">
-        <v>1.054764301997668</v>
+        <v>1.036667954966574</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.058958892053824</v>
+        <v>1.055186714157673</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.051223506695363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.047223527373328</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025779890107794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025425459420202</v>
+        <v>1.018524278408773</v>
       </c>
       <c r="D15">
-        <v>1.04291261415748</v>
+        <v>1.037025910443062</v>
       </c>
       <c r="E15">
-        <v>1.038993930891111</v>
+        <v>1.033416517223495</v>
       </c>
       <c r="F15">
-        <v>1.04844456610669</v>
+        <v>1.04349428172241</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.058048751312807</v>
+        <v>1.054770682032708</v>
       </c>
       <c r="J15">
-        <v>1.053632539221918</v>
+        <v>1.046999671499339</v>
       </c>
       <c r="K15">
-        <v>1.057000537093375</v>
+        <v>1.051213551465874</v>
       </c>
       <c r="L15">
-        <v>1.05314807222387</v>
+        <v>1.047666026166855</v>
       </c>
       <c r="M15">
-        <v>1.062440094335304</v>
+        <v>1.057572430222056</v>
       </c>
       <c r="N15">
-        <v>1.055128818280954</v>
+        <v>1.036722327486067</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.059265206925099</v>
+        <v>1.055417751528586</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.051447220385555</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.047371623858342</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025826913298484</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028223904308477</v>
+        <v>1.020746981587678</v>
       </c>
       <c r="D16">
-        <v>1.044785751288328</v>
+        <v>1.038416334196612</v>
       </c>
       <c r="E16">
-        <v>1.041130440031742</v>
+        <v>1.035052853135084</v>
       </c>
       <c r="F16">
-        <v>1.050377224253717</v>
+        <v>1.045001236277517</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.058851272710771</v>
+        <v>1.05526142597136</v>
       </c>
       <c r="J16">
-        <v>1.055287453883407</v>
+        <v>1.048086731132174</v>
       </c>
       <c r="K16">
-        <v>1.05835643025987</v>
+        <v>1.052090217805761</v>
       </c>
       <c r="L16">
-        <v>1.0547601482932</v>
+        <v>1.04878189495808</v>
       </c>
       <c r="M16">
-        <v>1.063858625242603</v>
+        <v>1.058568451936435</v>
       </c>
       <c r="N16">
-        <v>1.056786083111084</v>
+        <v>1.036935388227736</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.060348252039511</v>
+        <v>1.056166723205364</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.052408943111957</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.047994848180208</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025990667007022</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029790546715644</v>
+        <v>1.022041337119046</v>
       </c>
       <c r="D17">
-        <v>1.04579347712016</v>
+        <v>1.039194688599849</v>
       </c>
       <c r="E17">
-        <v>1.042277315526783</v>
+        <v>1.035966103199394</v>
       </c>
       <c r="F17">
-        <v>1.051365731105855</v>
+        <v>1.04578890554136</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.059237525078171</v>
+        <v>1.055503830456905</v>
       </c>
       <c r="J17">
-        <v>1.056150167016532</v>
+        <v>1.048678077851041</v>
       </c>
       <c r="K17">
-        <v>1.059043550613413</v>
+        <v>1.052548704916584</v>
       </c>
       <c r="L17">
-        <v>1.055582565245463</v>
+        <v>1.049371594107652</v>
       </c>
       <c r="M17">
-        <v>1.064529328880255</v>
+        <v>1.059039050464614</v>
       </c>
       <c r="N17">
-        <v>1.057650021395812</v>
+        <v>1.037082953230588</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.060751302502599</v>
+        <v>1.056411181218101</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.052897273412398</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.048321795345119</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.026058517863608</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030423168695433</v>
+        <v>1.022602292043734</v>
       </c>
       <c r="D18">
-        <v>1.046122522602369</v>
+        <v>1.039463118231879</v>
       </c>
       <c r="E18">
-        <v>1.042649191216707</v>
+        <v>1.03627992534465</v>
       </c>
       <c r="F18">
-        <v>1.0515920895076</v>
+        <v>1.045962634711587</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.059283701609286</v>
+        <v>1.05551698973202</v>
       </c>
       <c r="J18">
-        <v>1.056384125826465</v>
+        <v>1.048837790640213</v>
       </c>
       <c r="K18">
-        <v>1.059189935743647</v>
+        <v>1.052633744019318</v>
       </c>
       <c r="L18">
-        <v>1.055770226608673</v>
+        <v>1.049500486415227</v>
       </c>
       <c r="M18">
-        <v>1.064575977126369</v>
+        <v>1.059032506265919</v>
       </c>
       <c r="N18">
-        <v>1.057884312454091</v>
+        <v>1.03709192829152</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.06055454378113</v>
+        <v>1.056171486242727</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.052989385977458</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.048369356633579</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02602891047627</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03024544790451</v>
+        <v>1.022503224652448</v>
       </c>
       <c r="D19">
-        <v>1.045874230609697</v>
+        <v>1.039282394390167</v>
       </c>
       <c r="E19">
-        <v>1.042351759926986</v>
+        <v>1.036055347348599</v>
       </c>
       <c r="F19">
-        <v>1.051156599119219</v>
+        <v>1.045585614090768</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.059049166468076</v>
+        <v>1.05533204564267</v>
       </c>
       <c r="J19">
-        <v>1.056084334137002</v>
+        <v>1.048612415315115</v>
       </c>
       <c r="K19">
-        <v>1.05888490593912</v>
+        <v>1.052394746666907</v>
       </c>
       <c r="L19">
-        <v>1.055416563945558</v>
+        <v>1.049218079156106</v>
       </c>
       <c r="M19">
-        <v>1.064086968066719</v>
+        <v>1.058600706999609</v>
       </c>
       <c r="N19">
-        <v>1.057584095026042</v>
+        <v>1.036942896169468</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.059848681038154</v>
+        <v>1.055509488787788</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.052779985698101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.048207291400435</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025918161021642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027771457704314</v>
+        <v>1.020529379331946</v>
       </c>
       <c r="D20">
-        <v>1.043981864385718</v>
+        <v>1.037817637182398</v>
       </c>
       <c r="E20">
-        <v>1.040165531870527</v>
+        <v>1.034310869479863</v>
       </c>
       <c r="F20">
-        <v>1.048878574226853</v>
+        <v>1.043679145623404</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.058015782445584</v>
+        <v>1.05458190962802</v>
       </c>
       <c r="J20">
-        <v>1.054272273491583</v>
+        <v>1.047291238412358</v>
       </c>
       <c r="K20">
-        <v>1.057293052266461</v>
+        <v>1.051226579430262</v>
       </c>
       <c r="L20">
-        <v>1.053537065412781</v>
+        <v>1.047776090438733</v>
       </c>
       <c r="M20">
-        <v>1.062113155055513</v>
+        <v>1.056995099612249</v>
       </c>
       <c r="N20">
-        <v>1.055769461046661</v>
+        <v>1.03632274191796</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.057770537144139</v>
+        <v>1.053720215496941</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.051658374010184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.047385628097526</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025573500640205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022421652791092</v>
+        <v>1.016397499185493</v>
       </c>
       <c r="D21">
-        <v>1.040336187105587</v>
+        <v>1.035197660604056</v>
       </c>
       <c r="E21">
-        <v>1.036000675127074</v>
+        <v>1.03122109433864</v>
       </c>
       <c r="F21">
-        <v>1.045054172769043</v>
+        <v>1.040764628479927</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.056385180426779</v>
+        <v>1.053631378653224</v>
       </c>
       <c r="J21">
-        <v>1.051010951030237</v>
+        <v>1.045225292893307</v>
       </c>
       <c r="K21">
-        <v>1.054591657239205</v>
+        <v>1.049541537071668</v>
       </c>
       <c r="L21">
-        <v>1.05033066125718</v>
+        <v>1.045634169384249</v>
       </c>
       <c r="M21">
-        <v>1.059229459582427</v>
+        <v>1.055012778380352</v>
       </c>
       <c r="N21">
-        <v>1.052503507133341</v>
+        <v>1.03595959554153</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.055448383121298</v>
+        <v>1.052111222689502</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.049751632074668</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.046197778505013</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.025247682197677</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019013947003309</v>
+        <v>1.013754182216719</v>
       </c>
       <c r="D22">
-        <v>1.038023812409824</v>
+        <v>1.033533358170244</v>
       </c>
       <c r="E22">
-        <v>1.033365698255091</v>
+        <v>1.029263749591369</v>
       </c>
       <c r="F22">
-        <v>1.042650730921572</v>
+        <v>1.038935828915648</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.055347050161954</v>
+        <v>1.05302383837177</v>
       </c>
       <c r="J22">
-        <v>1.048941705134509</v>
+        <v>1.043902340180595</v>
       </c>
       <c r="K22">
-        <v>1.052877857707072</v>
+        <v>1.048468550571094</v>
       </c>
       <c r="L22">
-        <v>1.04830393821202</v>
+        <v>1.044276953622578</v>
       </c>
       <c r="M22">
-        <v>1.057422111833611</v>
+        <v>1.053773504469512</v>
       </c>
       <c r="N22">
-        <v>1.050431322671096</v>
+        <v>1.035682734608615</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.054018016085405</v>
+        <v>1.051130435310672</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.048526708635609</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.045424571855583</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.025042251333064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020809756146105</v>
+        <v>1.01510108977051</v>
       </c>
       <c r="D23">
-        <v>1.039235149509143</v>
+        <v>1.034365045506138</v>
       </c>
       <c r="E23">
-        <v>1.034750493927417</v>
+        <v>1.03024851798696</v>
       </c>
       <c r="F23">
-        <v>1.043913919748893</v>
+        <v>1.039860702572665</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.055888186819305</v>
+        <v>1.053309935565733</v>
       </c>
       <c r="J23">
-        <v>1.050026095561645</v>
+        <v>1.044549616043698</v>
       </c>
       <c r="K23">
-        <v>1.053771691109226</v>
+        <v>1.048987355975881</v>
       </c>
       <c r="L23">
-        <v>1.049365977986581</v>
+        <v>1.04494414720701</v>
       </c>
       <c r="M23">
-        <v>1.058369037240355</v>
+        <v>1.054386302782509</v>
       </c>
       <c r="N23">
-        <v>1.051517253057019</v>
+        <v>1.035730523134986</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.054767429968722</v>
+        <v>1.051615416915183</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.049149213394653</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.045780959823569</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.025130367523519</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027761652506982</v>
+        <v>1.020527289302356</v>
       </c>
       <c r="D24">
-        <v>1.043947790498569</v>
+        <v>1.037789842076788</v>
       </c>
       <c r="E24">
-        <v>1.040132038200457</v>
+        <v>1.034284706761622</v>
       </c>
       <c r="F24">
-        <v>1.04882588163963</v>
+        <v>1.043632075347579</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.057979041614572</v>
+        <v>1.054550295148168</v>
       </c>
       <c r="J24">
-        <v>1.054231387338157</v>
+        <v>1.047257429756761</v>
       </c>
       <c r="K24">
-        <v>1.057244717753207</v>
+        <v>1.05118430711053</v>
       </c>
       <c r="L24">
-        <v>1.053489230084907</v>
+        <v>1.047735356281852</v>
       </c>
       <c r="M24">
-        <v>1.062046582143337</v>
+        <v>1.056933967494994</v>
       </c>
       <c r="N24">
-        <v>1.055728516830208</v>
+        <v>1.036296008320739</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.057677898479808</v>
+        <v>1.053631689542515</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.051597363695848</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.047326130476979</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025552639500456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03554378899207</v>
+        <v>1.027280597917524</v>
       </c>
       <c r="D25">
-        <v>1.04924603930605</v>
+        <v>1.042187232967157</v>
       </c>
       <c r="E25">
-        <v>1.046186010265663</v>
+        <v>1.039451904013668</v>
       </c>
       <c r="F25">
-        <v>1.054358225207827</v>
+        <v>1.048396105378296</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.060287330469253</v>
+        <v>1.056301870560251</v>
       </c>
       <c r="J25">
-        <v>1.058931441655198</v>
+        <v>1.050923493106162</v>
       </c>
       <c r="K25">
-        <v>1.061125116173953</v>
+        <v>1.054164134025363</v>
       </c>
       <c r="L25">
-        <v>1.058107290023904</v>
+        <v>1.051467163724612</v>
       </c>
       <c r="M25">
-        <v>1.06616748419337</v>
+        <v>1.060286873106483</v>
       </c>
       <c r="N25">
-        <v>1.060435245763482</v>
+        <v>1.038257624879325</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.060939233889009</v>
+        <v>1.056285237674518</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.054338088421767</v>
+        <v>1.049429829293856</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02622358805998</v>
       </c>
     </row>
   </sheetData>
